--- a/src/flowChart/flowChart.xlsx
+++ b/src/flowChart/flowChart.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="18">
   <si>
     <t>logic</t>
   </si>
@@ -22,9 +22,6 @@
     <t>value</t>
   </si>
   <si>
-    <t>note</t>
-  </si>
-  <si>
     <t>1==1</t>
   </si>
   <si>
@@ -53,13 +50,31 @@
   </si>
   <si>
     <t>&gt;25 MPG</t>
+  </si>
+  <si>
+    <t>stat</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>Mean MPG:</t>
+  </si>
+  <si>
+    <t>var</t>
+  </si>
+  <si>
+    <t>mpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -68,14 +83,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="12"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -90,13 +114,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431"/>
+        <fgColor theme="8" tint="0.79995117038484"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431"/>
+        <fgColor theme="7" tint="0.79995117038484"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -112,8 +136,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407453"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -216,50 +246,105 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="true"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="true"/>
+      </left>
+      <right style="medium">
+        <color auto="true"/>
+      </right>
+      <top style="medium">
+        <color auto="true"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="true"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="true"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="true"/>
+      </top>
+      <bottom style="medium">
+        <color auto="true"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -534,16 +619,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="H25" sqref="H25:H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="20.6640625" bestFit="true" customWidth="true"/>
-    <col min="4" max="4" width="10.83203125" customWidth="true"/>
+    <col min="5" max="5" width="10.83203125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="17" thickBot="true">
@@ -551,145 +636,218 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="0">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="0">
         <v>74</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="1"/>
     </row>
     <row r="3" ht="17" thickBot="true">
       <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="0">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="0">
         <v>52</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="2">
-        <f>C2</f>
+      <c r="E3" s="1"/>
+      <c r="F3" s="5">
+        <f>D2</f>
         <v>74</v>
       </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="1"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="1"/>
     </row>
     <row r="4" ht="17" thickBot="true">
       <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="0">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="0">
         <v>22</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="1"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="0">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="0">
         <v>15</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="1"/>
+      <c r="F5" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="11"/>
+      <c r="H5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="12"/>
-      <c r="G5" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="10"/>
-      <c r="I5" s="1"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="1"/>
     </row>
     <row r="6" ht="17" thickBot="true">
       <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="0">
         <v>7</v>
       </c>
-      <c r="C6" s="0">
+      <c r="E6" s="1"/>
+      <c r="F6" s="5">
+        <f>D3</f>
+        <v>52</v>
+      </c>
+      <c r="G6" s="7"/>
+      <c r="H6" s="15">
+        <f>D4</f>
+        <v>22</v>
+      </c>
+      <c r="I6" s="14"/>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="0">
+        <v>21.266666412353516</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" ht="17" thickBot="true">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="0">
+        <v>32.285713195800781</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="16">
+        <f>D5</f>
+        <v>15</v>
+      </c>
+      <c r="I8" s="16">
+        <f>D6</f>
         <v>7</v>
       </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="2">
-        <f>C3</f>
-        <v>52</v>
-      </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="2">
-        <f>C4</f>
-        <v>22</v>
-      </c>
-      <c r="H6" s="4"/>
-      <c r="I6" s="1"/>
-    </row>
-    <row r="7">
-      <c r="D7" s="1"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="I7" s="1"/>
-    </row>
-    <row r="8" ht="17" thickBot="true">
-      <c r="D8" s="1"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="7">
-        <f>C5</f>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" ht="17" thickBot="true">
+      <c r="E9" s="1"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="7">
-        <f>C6</f>
+      <c r="H9" s="13">
+        <f>D7</f>
+        <v>15</v>
+      </c>
+      <c r="I9" s="13">
+        <f>D8</f>
         <v>7</v>
       </c>
-      <c r="I8" s="1"/>
-    </row>
-    <row r="9">
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10">
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
